--- a/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
+++ b/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xbcx\CAD\UI\Innocellence.Web\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E27E84-9EC1-4E4E-8A6C-45B586E1A6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255B873-935C-4164-A6E3-668A691A5AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焊材" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>焊材型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊缝截面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,6 +395,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
+++ b/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xbcx\CAD\UI\Innocellence.Web\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255B873-935C-4164-A6E3-668A691A5AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6705DF1-DC47-4154-87B9-21D6FADEFE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焊材" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,7 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>焊缝截面积</t>
+    <t>焊材规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,15 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,6 +405,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
+++ b/UI/Innocellence.Web/Content/焊材批量统计表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xbcx\CAD\UI\Innocellence.Web\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\DLYB\UI\Innocellence.Web\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6705DF1-DC47-4154-87B9-21D6FADEFE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5523DE01-27D6-4CCA-A3AF-0B762E143640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19485" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焊材" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊缝重量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,18 +380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +412,9 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
